--- a/static/files/inwentura.xlsx
+++ b/static/files/inwentura.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1740</v>
+        <v>2880</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Version 15.5</t>
+          <t>Version 15.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1800</v>
+        <v>2880</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Version 15.1</t>
+          <t>Version 15.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -585,42 +585,16 @@
           <t>SB-R-1000</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>881</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>FCZ1715C05P</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Version 15.7</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>GdaEsk</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>FastEthernet4: 100.13.0.1/30 , Loopback1: 172.16.0.255/32 , Tunnel0: 10.0.0.4/32 , Vlan100: 172.16.0.1/26 , Vlan110: 172.16.0.65/26 , Vlan120: 172.16.0.129/26</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Dane pobrane prawidłowo</t>
+          <t>Problem pobraniem danych</t>
         </is>
       </c>
     </row>
@@ -634,7 +608,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1800</v>
+        <v>2940</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -663,7 +637,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>FastEthernet4: 156.78.0.1/30 , Loopback1: 172.16.1.255/32 , Tunnel0: 10.0.0.3/32 , Vlan100: 172.16.1.1/26 , Vlan110: 172.16.1.65/26 , Vlan120: 172.16.1.129/26</t>
+          <t>FastEthernet4: 156.78.0.1/30 , Loopback1: 172.16.1.255/32 , Tunnel0: 10.0.0.4/32 , Vlan100: 172.16.1.1/26 , Vlan110: 172.16.1.65/26 , Vlan120: 172.16.1.129/26</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -682,7 +656,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1680</v>
+        <v>2820</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/static/files/inwentura.xlsx
+++ b/static/files/inwentura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Hostname</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Uptime</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Serial_number</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IPs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
         </is>
       </c>
     </row>
@@ -486,45 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Problem pobraniem danych</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>DC-R1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2880</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C892FSP-K9</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>FCZ1948C1EA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Version 15.6</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>"DC1 Warsaw, Floor 1"</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>GigabitEthernet9: 13.0.0.1/30 , Loopback0: 10.0.0.1/32 , Vlan1: 192.168.1.2/24</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Dane pobrane prawidłowo</t>
         </is>
       </c>
     </row>
@@ -534,45 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Problem pobraniem danych</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>ISP-R1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2880</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>866VAE-K9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>GMK184800YD</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Version 15.7</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>"Local Network Node, Country PL"</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>GigabitEthernet1: 192.168.1.3/24 , Vlan500: 13.0.0.2/30 , Vlan600: 100.13.0.2/30 , Vlan700: 156.78.0.2/30 , Vlan800: 44.1.0.2/30</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Dane pobrane prawidłowo</t>
         </is>
       </c>
     </row>
@@ -582,19 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Problem pobraniem danych</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>SB-R-1000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Problem pobraniem danych</t>
         </is>
       </c>
     </row>
@@ -604,45 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Problem pobraniem danych</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>SB-R-1001</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2940</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>881</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>FCZ1546C0XW</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Version 15.7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WrocawE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>FastEthernet4: 156.78.0.1/30 , Loopback1: 172.16.1.255/32 , Tunnel0: 10.0.0.4/32 , Vlan100: 172.16.1.1/26 , Vlan110: 172.16.1.65/26 , Vlan120: 172.16.1.129/26</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Dane pobrane prawidłowo</t>
         </is>
       </c>
     </row>
@@ -652,45 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Problem pobraniem danych</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>SB-R-1002</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2820</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C881-K9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FCZ192093BH</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Version 15.6</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Bukowiec</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>FastEthernet4: 44.1.0.1/30 , Loopback1: 172.16.2.255/32 , Tunnel0: 10.0.0.2/32 , Vlan100: 172.16.2.1/26 , Vlan110: 172.16.2.65/26 , Vlan120: 172.16.2.129/26</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Dane pobrane prawidłowo</t>
         </is>
       </c>
     </row>
